--- a/data/trans_orig/P20D2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1355</v>
+        <v>1749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9464</v>
+        <v>8703</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2898119278325367</v>
+        <v>0.2898119278325366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08318267567182548</v>
+        <v>0.1073753075562803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5808575349373003</v>
+        <v>0.5341675681353096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>6217</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3881</v>
+        <v>3631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8158</v>
+        <v>8161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7013216025054778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4378831547638867</v>
+        <v>0.4096240470753552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9203225168806044</v>
+        <v>0.9207004533980766</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>10938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5711</v>
+        <v>6502</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15271</v>
+        <v>16043</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4348034529678062</v>
+        <v>0.4348034529678063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.22702690637059</v>
+        <v>0.258459568272729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6070141707868432</v>
+        <v>0.6377189924888909</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6433</v>
+        <v>7100</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1508938853388997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03127944974916437</v>
+        <v>0.03232621082204387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3948355602044977</v>
+        <v>0.4357742462964064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>2459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6911</v>
+        <v>6648</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09772785810937715</v>
+        <v>0.09772785810937716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02068244999952681</v>
+        <v>0.01982497637214635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2747303263541572</v>
+        <v>0.264251144507127</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>9113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5239</v>
+        <v>4960</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13038</v>
+        <v>12874</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5592941868285637</v>
+        <v>0.5592941868285636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3215572725677262</v>
+        <v>0.3044252738471793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8002444090738597</v>
+        <v>0.7901514416486477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -896,19 +896,19 @@
         <v>2647</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4983</v>
+        <v>5233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2986783974945222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07967748311939592</v>
+        <v>0.07929954660192348</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5621168452361135</v>
+        <v>0.5903759529246446</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -917,19 +917,19 @@
         <v>11760</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7107</v>
+        <v>6946</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16762</v>
+        <v>16457</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4674686889228168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2825208401169086</v>
+        <v>0.2761004893343096</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6662837116476058</v>
+        <v>0.6541740768160915</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3527</v>
+        <v>3951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06687336946572017</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2349153398880654</v>
+        <v>0.263140383842162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1042,19 +1042,19 @@
         <v>4644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2267</v>
+        <v>2205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7714</v>
+        <v>7525</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2870145573122287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1400690258575724</v>
+        <v>0.1362771566078585</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4766840546340768</v>
+        <v>0.4650085523772902</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1063,19 +1063,19 @@
         <v>5649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3059</v>
+        <v>2921</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9902</v>
+        <v>9203</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1810586538430182</v>
+        <v>0.1810586538430181</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09804012458054256</v>
+        <v>0.09363849375844452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3173950738885719</v>
+        <v>0.2949788568669102</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6665</v>
+        <v>6214</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1581421264376149</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4438479096758316</v>
+        <v>0.413852292932819</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1113,19 +1113,19 @@
         <v>2593</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>889</v>
+        <v>963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5472</v>
+        <v>5413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1602200674675973</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05492404860775934</v>
+        <v>0.05953069744157745</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.338161778180491</v>
+        <v>0.3344942608492148</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1134,19 +1134,19 @@
         <v>4967</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2073</v>
+        <v>1994</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9540</v>
+        <v>9687</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1592199360458434</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06643189196854095</v>
+        <v>0.06391962182298891</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3057823483964595</v>
+        <v>0.3104910348451388</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>11637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7200</v>
+        <v>8021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14032</v>
+        <v>14101</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7749845040966649</v>
+        <v>0.774984504096665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4795143123904351</v>
+        <v>0.5341849920946733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.934465436439941</v>
+        <v>0.9390405374887513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1184,19 +1184,19 @@
         <v>8945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5901</v>
+        <v>6088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11828</v>
+        <v>11849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5527653752201741</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.364641331342583</v>
+        <v>0.3762094027879216</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7309340016139412</v>
+        <v>0.7322463054223319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1205,19 +1205,19 @@
         <v>20582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15915</v>
+        <v>16153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24792</v>
+        <v>24970</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6597214101111385</v>
+        <v>0.6597214101111386</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5101270760524874</v>
+        <v>0.5177697515183822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7946713112061824</v>
+        <v>0.8003807386662074</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>2824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6968</v>
+        <v>7036</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.168099191751183</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02788996014088203</v>
+        <v>0.02654544437199642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4148193347077365</v>
+        <v>0.418861543283886</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1330,19 +1330,19 @@
         <v>9185</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5608</v>
+        <v>5704</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12180</v>
+        <v>12355</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5828233909329316</v>
+        <v>0.5828233909329317</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3558725092284824</v>
+        <v>0.3619665048847366</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7729087040069405</v>
+        <v>0.7839977022176723</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -1351,19 +1351,19 @@
         <v>12008</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7423</v>
+        <v>7333</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17758</v>
+        <v>17442</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3688430372972555</v>
+        <v>0.3688430372972554</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.22802194714711</v>
+        <v>0.2252477120456408</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5454728480159144</v>
+        <v>0.5357453753392154</v>
       </c>
     </row>
     <row r="13">
@@ -1383,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2908</v>
+        <v>2656</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02732371268233421</v>
+        <v>0.0273237126823342</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1731102893255306</v>
+        <v>0.1580996022860918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1401,19 +1401,19 @@
         <v>1991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4929</v>
+        <v>4993</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1263374622796863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.029415359950949</v>
+        <v>0.03312824903339856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3127752447748361</v>
+        <v>0.3168055934917027</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1422,19 +1422,19 @@
         <v>2450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>546</v>
+        <v>666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5974</v>
+        <v>5787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07525050570604613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01676137602794553</v>
+        <v>0.02045029979319545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1835132397515334</v>
+        <v>0.1777673873236295</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>13515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9072</v>
+        <v>9539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15894</v>
+        <v>15849</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8045770955664829</v>
+        <v>0.8045770955664828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5400388952575234</v>
+        <v>0.5678561718728161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9461780694810918</v>
+        <v>0.9434849697278648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1472,19 +1472,19 @@
         <v>4583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2135</v>
+        <v>2032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8511</v>
+        <v>8130</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.290839146787382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1354755121107926</v>
+        <v>0.1289622927641705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5400732567488166</v>
+        <v>0.5159260558556596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1493,19 +1493,19 @@
         <v>18098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12419</v>
+        <v>13230</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23060</v>
+        <v>23482</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5559064569966985</v>
+        <v>0.5559064569966986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3814731780381876</v>
+        <v>0.4063787156476723</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7083293140244968</v>
+        <v>0.7212677551665145</v>
       </c>
     </row>
     <row r="15">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7581</v>
+        <v>6836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1397627897768925</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4191846714700515</v>
+        <v>0.3780219674863707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1618,19 +1618,19 @@
         <v>7507</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3093</v>
+        <v>3368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11482</v>
+        <v>11280</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4687991181972482</v>
+        <v>0.4687991181972481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.193114005737036</v>
+        <v>0.2103059979893168</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7170260175641244</v>
+        <v>0.7043548890897022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1639,19 +1639,19 @@
         <v>10035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5666</v>
+        <v>5288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15892</v>
+        <v>15675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2942932249120441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1661675960169215</v>
+        <v>0.1550962606518036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4660963804835635</v>
+        <v>0.4597318584872669</v>
       </c>
     </row>
     <row r="17">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4059</v>
+        <v>4279</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04674071724810939</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2244435422767425</v>
+        <v>0.2366084495344353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1689,19 +1689,19 @@
         <v>1358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4204</v>
+        <v>3875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08479143607738497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02005217629120338</v>
+        <v>0.01877949700632854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2624958497161639</v>
+        <v>0.2419899683162044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1710,19 +1710,19 @@
         <v>2203</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5456</v>
+        <v>5924</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06461106659865698</v>
+        <v>0.06461106659865697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01555337696578484</v>
+        <v>0.01788314079877347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1600198302905654</v>
+        <v>0.1737344300049402</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>14711</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10281</v>
+        <v>10345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17185</v>
+        <v>18084</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8134964929749982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5685358093484845</v>
+        <v>0.5720317618211839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9502846433702423</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1760,19 +1760,19 @@
         <v>7149</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3240</v>
+        <v>3087</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12243</v>
+        <v>11673</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4464094457253669</v>
+        <v>0.4464094457253668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2023183523477728</v>
+        <v>0.1927592926794134</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7645055123448732</v>
+        <v>0.7289267411029953</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -1781,19 +1781,19 @@
         <v>21859</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16695</v>
+        <v>16291</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26968</v>
+        <v>27276</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6410957084892991</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4896346986443529</v>
+        <v>0.4777720272337315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7909135019053544</v>
+        <v>0.7999599603261707</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>11077</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6261</v>
+        <v>6297</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18182</v>
+        <v>18010</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1673538996587569</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09458718059488325</v>
+        <v>0.09514114380907687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2746906592282524</v>
+        <v>0.2720983441394501</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -1906,19 +1906,19 @@
         <v>27552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20801</v>
+        <v>20220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34099</v>
+        <v>33617</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4849249091185591</v>
+        <v>0.4849249091185592</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3661064026382148</v>
+        <v>0.35586607029853</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6001447841524398</v>
+        <v>0.5916637625145817</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -1927,19 +1927,19 @@
         <v>38630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29734</v>
+        <v>29472</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49464</v>
+        <v>49562</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3140413369896639</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2417215573404256</v>
+        <v>0.2395911101014364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4021155896651099</v>
+        <v>0.4029164341254712</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>6137</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2660</v>
+        <v>2529</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12477</v>
+        <v>11705</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09272360711319301</v>
+        <v>0.09272360711319302</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04018366501352536</v>
+        <v>0.03820946131798945</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1884976871034317</v>
+        <v>0.1768431668861548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1977,19 +1977,19 @@
         <v>5941</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2982</v>
+        <v>2854</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10143</v>
+        <v>9905</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1045690934334807</v>
+        <v>0.1045690934334808</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05248632624026679</v>
+        <v>0.05023605787454114</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1785210765953044</v>
+        <v>0.1743360998387129</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -1998,19 +1998,19 @@
         <v>12079</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7414</v>
+        <v>7140</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18717</v>
+        <v>19056</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09819508901960823</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06027119200823969</v>
+        <v>0.0580458723164849</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1521620823429637</v>
+        <v>0.1549122617004919</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>48975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41651</v>
+        <v>41108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55380</v>
+        <v>55195</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7399224932280498</v>
+        <v>0.7399224932280501</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6292579521627114</v>
+        <v>0.621053927480866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8366795383816439</v>
+        <v>0.8338867206991099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2048,19 +2048,19 @@
         <v>23324</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17105</v>
+        <v>17536</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31273</v>
+        <v>31963</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4105059974479598</v>
+        <v>0.41050599744796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3010577069183517</v>
+        <v>0.3086300968517023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5504100020221605</v>
+        <v>0.5625436536672241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -2069,19 +2069,19 @@
         <v>72300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62026</v>
+        <v>61155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82612</v>
+        <v>82050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5877635739907279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5042357907681905</v>
+        <v>0.4971566156628182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6715893841487719</v>
+        <v>0.6670271581291833</v>
       </c>
     </row>
     <row r="23">
